--- a/biology/Médecine/Myélopathie_cervicoarthrosique/Myélopathie_cervicoarthrosique.xlsx
+++ b/biology/Médecine/Myélopathie_cervicoarthrosique/Myélopathie_cervicoarthrosique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9lopathie_cervicoarthrosique</t>
+          <t>Myélopathie_cervicoarthrosique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myélopathie cervicoarthrosique est une pathologie de la moelle spinale liée à une compression mécanique au niveau cervical.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>My%C3%A9lopathie_cervicoarthrosique</t>
+          <t>Myélopathie_cervicoarthrosique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie survient en général après 50 ans, le plus souvent chez les hommes. Elle est liée au développement progressif d'anomalies du rachis cervical en rapport à des microtraumatismes répétés (mouvements répétitifs de flexion/extension du cou) : ostéophytes vertébraux, saillies des disques intervertébraux, épaississement ligamentaire.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>My%C3%A9lopathie_cervicoarthrosique</t>
+          <t>Myélopathie_cervicoarthrosique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les symptômes de la maladie évoluent en général lentement, sur plusieurs mois, à mesure que s'aggravent les lésions du rachis. Dans de rares cas, une aggravation brutale peut s'observer après un mouvement brutal ou un traumatisme du cou.
 On retrouve :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>My%C3%A9lopathie_cervicoarthrosique</t>
+          <t>Myélopathie_cervicoarthrosique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le meilleur examen explorant la moelle est l'IRM médullaire, qui doit être réalisée en première intention en cas de compression manifeste.
 Les autres examens sont :
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>My%C3%A9lopathie_cervicoarthrosique</t>
+          <t>Myélopathie_cervicoarthrosique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe deux possibilités de prise en charge, en fonction de l'impact de la maladie sur le patient, qu'il convient de bien évaluer. Dans tous les cas, les anomalies rachidiennes sont très fréquentes après 50 ans et des anomalies morphologiques détectées par l'imagerie sans aucun signe fonctionnel ne doivent pas justifier un traitement.
 Symptomatologie modérée, peu invalidante : traitement médical et physique :
